--- a/amex database.xlsx
+++ b/amex database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Amelia/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Amelia/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7114FBBA-D067-B043-A42F-FF506840E5A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35427C43-FE13-4149-A252-6A0A63168012}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5360" yWindow="460" windowWidth="24100" windowHeight="15540" activeTab="1" xr2:uid="{7ADF45AD-6250-7E44-AFBF-452086BB9A35}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="24100" windowHeight="15540" activeTab="1" xr2:uid="{7ADF45AD-6250-7E44-AFBF-452086BB9A35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="201">
   <si>
     <t>Issuer</t>
   </si>
@@ -613,6 +613,27 @@
   </si>
   <si>
     <t>https://www.americanexpress.com/ca/en/credit-cards/aeroplan-reserve-credit-card/</t>
+  </si>
+  <si>
+    <t>Welcome Offer Membership Points</t>
+  </si>
+  <si>
+    <t>Welcome Offer Air Miles</t>
+  </si>
+  <si>
+    <t>Welcome Offer Aeroplan</t>
+  </si>
+  <si>
+    <t>Welcome Offer Cashback %</t>
+  </si>
+  <si>
+    <t>Annual Interest Rate on purchase %</t>
+  </si>
+  <si>
+    <t>Annual Interest Rate on funds %</t>
+  </si>
+  <si>
+    <t>A, V ,M</t>
   </si>
 </sst>
 </file>
@@ -622,7 +643,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -708,6 +729,13 @@
       <name val="Georgia"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -732,11 +760,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -756,29 +785,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="6" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1092,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DA3646-F7F6-E846-9D9A-3ACD4525CF88}">
   <dimension ref="A1:T89"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="108" zoomScaleNormal="159" workbookViewId="0">
-      <selection sqref="A1:R17"/>
+    <sheetView zoomScale="108" zoomScaleNormal="159" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1102,13 +1135,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1117,86 +1150,86 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="26" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="26" t="s">
         <v>11</v>
       </c>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="19"/>
+      <c r="J2" s="26"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
     </row>
     <row r="3" spans="1:20" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="22" t="s">
+      <c r="J3" s="26"/>
+      <c r="K3" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="21" t="s">
         <v>162</v>
       </c>
       <c r="M3" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
     </row>
     <row r="4" spans="1:20" ht="20" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
@@ -1220,7 +1253,7 @@
       <c r="G4" s="3">
         <v>2500</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <v>500</v>
       </c>
       <c r="I4" s="4">
@@ -1229,13 +1262,13 @@
       <c r="J4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="21">
         <v>19.989999999999998</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="21">
         <v>22.99</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="19" t="s">
         <v>156</v>
       </c>
       <c r="N4" s="5" t="s">
@@ -1269,7 +1302,7 @@
       <c r="G5" s="3">
         <v>25000</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <v>1500</v>
       </c>
       <c r="I5" s="4">
@@ -1284,7 +1317,7 @@
       <c r="L5" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="20" t="s">
         <v>157</v>
       </c>
       <c r="N5" s="5" t="s">
@@ -1318,7 +1351,7 @@
       <c r="G6" s="2">
         <v>50000</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <v>1500</v>
       </c>
       <c r="I6" s="4">
@@ -1327,13 +1360,13 @@
       <c r="J6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="21">
         <v>19.989999999999998</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="21">
         <v>22.99</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="20" t="s">
         <v>163</v>
       </c>
       <c r="N6" s="5" t="s">
@@ -1376,10 +1409,10 @@
       <c r="J7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="21">
         <v>8.99</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="21">
         <v>8.99</v>
       </c>
       <c r="M7" s="2" t="s">
@@ -1413,7 +1446,7 @@
       <c r="F8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="21" t="s">
         <v>174</v>
       </c>
       <c r="H8" s="4">
@@ -1425,10 +1458,10 @@
       <c r="J8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="21">
         <v>19.989999999999998</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="21">
         <v>22.99</v>
       </c>
       <c r="M8" s="2" t="s">
@@ -1462,7 +1495,7 @@
       <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="22" t="s">
         <v>178</v>
       </c>
       <c r="H9" s="4"/>
@@ -1472,10 +1505,10 @@
       <c r="J9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="21">
         <v>19.989999999999998</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="21">
         <v>22.99</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -1766,10 +1799,10 @@
       <c r="J15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="21">
         <v>19.989999999999998</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="21">
         <v>22.99</v>
       </c>
       <c r="M15" s="2" t="s">
@@ -1815,13 +1848,13 @@
       <c r="J16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="21">
         <v>19.989999999999998</v>
       </c>
-      <c r="L16" s="22">
+      <c r="L16" s="21">
         <v>22.99</v>
       </c>
-      <c r="M16" s="22" t="s">
+      <c r="M16" s="21" t="s">
         <v>182</v>
       </c>
       <c r="N16" s="5" t="s">
@@ -1852,7 +1885,7 @@
       <c r="F17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="21" t="s">
         <v>177</v>
       </c>
       <c r="H17" s="4">
@@ -1864,10 +1897,10 @@
       <c r="J17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="21">
         <v>19.989999999999998</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L17" s="21">
         <v>22.99</v>
       </c>
       <c r="M17" s="2" t="s">
@@ -4319,12 +4352,6 @@
   </sheetData>
   <autoFilter ref="A4:N86" xr:uid="{EEEAF92B-B456-8B49-891B-07A3FA6C269C}"/>
   <mergeCells count="13">
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
     <mergeCell ref="R1:R3"/>
     <mergeCell ref="S1:S3"/>
     <mergeCell ref="T1:T3"/>
@@ -4332,6 +4359,12 @@
     <mergeCell ref="O1:O3"/>
     <mergeCell ref="P1:P3"/>
     <mergeCell ref="N1:N3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N4" r:id="rId1" xr:uid="{C2F2E7F9-3F2C-E849-86DC-56542B2CE815}"/>
@@ -4403,799 +4436,897 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06761BE2-F33E-EF42-8153-D2B12D48E199}">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="27"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="27"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="27"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="31">
+        <v>2500</v>
+      </c>
+      <c r="G4" s="31">
+        <v>0</v>
+      </c>
+      <c r="H4" s="31">
+        <v>0</v>
+      </c>
+      <c r="I4" s="31">
+        <v>0</v>
+      </c>
+      <c r="J4" s="32">
+        <v>500</v>
+      </c>
+      <c r="K4" s="31">
+        <v>120</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="31">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="N4" s="31">
+        <v>22.99</v>
+      </c>
+      <c r="O4" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="P4" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="25"/>
+    </row>
+    <row r="5" spans="1:20" ht="255" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="31">
+        <v>25000</v>
+      </c>
+      <c r="G5" s="31">
+        <v>0</v>
+      </c>
+      <c r="H5" s="31">
+        <v>0</v>
+      </c>
+      <c r="I5" s="31">
+        <v>0</v>
+      </c>
+      <c r="J5" s="32">
+        <v>1500</v>
+      </c>
+      <c r="K5" s="31">
+        <v>150</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="O5" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="P5" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="25"/>
+    </row>
+    <row r="6" spans="1:20" ht="306" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="31">
+        <v>50000</v>
+      </c>
+      <c r="G6" s="31">
+        <v>0</v>
+      </c>
+      <c r="H6" s="31">
+        <v>0</v>
+      </c>
+      <c r="I6" s="31">
+        <v>0</v>
+      </c>
+      <c r="J6" s="32">
+        <v>1500</v>
+      </c>
+      <c r="K6" s="31">
+        <v>120</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="31">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="N6" s="31">
+        <v>22.99</v>
+      </c>
+      <c r="O6" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="P6" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="24"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="31">
+        <v>0</v>
+      </c>
+      <c r="G7" s="31">
+        <v>0</v>
+      </c>
+      <c r="H7" s="31">
+        <v>0</v>
+      </c>
+      <c r="I7" s="31">
+        <v>0</v>
+      </c>
+      <c r="J7" s="31">
+        <v>0</v>
+      </c>
+      <c r="K7" s="31">
+        <v>0</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="31">
+        <v>8.99</v>
+      </c>
+      <c r="N7" s="31">
+        <v>8.99</v>
+      </c>
+      <c r="O7" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="P7" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="24"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="31">
+        <v>0</v>
+      </c>
+      <c r="G8" s="31">
+        <v>500</v>
+      </c>
+      <c r="H8" s="31">
+        <v>0</v>
+      </c>
+      <c r="I8" s="31">
+        <v>0</v>
+      </c>
+      <c r="J8" s="31">
+        <v>500</v>
+      </c>
+      <c r="K8" s="31">
+        <v>0</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="31">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="N8" s="31">
+        <v>22.99</v>
+      </c>
+      <c r="O8" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="P8" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="24"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="31">
+        <v>0</v>
+      </c>
+      <c r="G9" s="31">
+        <v>0</v>
+      </c>
+      <c r="H9" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="I9" s="28">
+        <v>0</v>
+      </c>
+      <c r="J9" s="31">
+        <v>0</v>
+      </c>
+      <c r="K9" s="31">
+        <v>0</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="31">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="N9" s="31">
+        <v>22.99</v>
+      </c>
+      <c r="O9" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="P9" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="25"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="31">
+        <v>0</v>
+      </c>
+      <c r="G10" s="31">
+        <v>0</v>
+      </c>
+      <c r="H10" s="31">
+        <v>0</v>
+      </c>
+      <c r="I10" s="31">
+        <v>15000</v>
+      </c>
+      <c r="J10" s="31">
+        <v>1500</v>
+      </c>
+      <c r="K10" s="31">
+        <v>120</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="N10" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="O10" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="P10" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="25"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="31">
+        <v>50000</v>
+      </c>
+      <c r="G11" s="31">
+        <v>0</v>
+      </c>
+      <c r="H11" s="31">
+        <v>0</v>
+      </c>
+      <c r="I11" s="31">
+        <v>0</v>
+      </c>
+      <c r="J11" s="31">
+        <v>3000</v>
+      </c>
+      <c r="K11" s="31">
+        <v>699</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="N11" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="O11" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="P11" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="25"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="31">
+        <v>0</v>
+      </c>
+      <c r="G12" s="31">
+        <v>0</v>
+      </c>
+      <c r="H12" s="31">
+        <v>0</v>
+      </c>
+      <c r="I12" s="31">
+        <v>5000</v>
+      </c>
+      <c r="J12" s="31">
+        <v>0</v>
+      </c>
+      <c r="K12" s="31">
+        <v>60</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="N12" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="O12" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="P12" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="24"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="31">
+        <v>0</v>
+      </c>
+      <c r="G13" s="31">
+        <v>0</v>
+      </c>
+      <c r="H13" s="31">
+        <v>0</v>
+      </c>
+      <c r="I13" s="31">
+        <v>40000</v>
+      </c>
+      <c r="J13" s="31">
+        <v>3000</v>
+      </c>
+      <c r="K13" s="31">
+        <v>499</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="N13" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="O13" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="P13" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="25"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="31">
+        <v>0</v>
+      </c>
+      <c r="G14" s="31">
+        <v>0</v>
+      </c>
+      <c r="H14" s="31">
+        <v>0</v>
+      </c>
+      <c r="I14" s="31">
+        <v>50000</v>
+      </c>
+      <c r="J14" s="31">
+        <v>3000</v>
+      </c>
+      <c r="K14" s="31">
+        <v>899</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="N14" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="O14" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="P14" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="25"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="31">
+        <v>0</v>
+      </c>
+      <c r="G15" s="31">
+        <v>2000</v>
+      </c>
+      <c r="H15" s="31">
+        <v>0</v>
+      </c>
+      <c r="I15" s="31">
+        <v>0</v>
+      </c>
+      <c r="J15" s="31">
+        <v>1500</v>
+      </c>
+      <c r="K15" s="31">
+        <v>65</v>
+      </c>
+      <c r="L15" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="31">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="N15" s="31">
+        <v>22.99</v>
+      </c>
+      <c r="O15" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="P15" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="24"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="31">
+        <v>0</v>
+      </c>
+      <c r="G16" s="31">
+        <v>2400</v>
+      </c>
+      <c r="H16" s="31">
+        <v>0</v>
+      </c>
+      <c r="I16" s="31">
+        <v>0</v>
+      </c>
+      <c r="J16" s="31">
+        <v>3000</v>
+      </c>
+      <c r="K16" s="31">
+        <v>299</v>
+      </c>
+      <c r="L16" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="31">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="N16" s="31">
+        <v>22.99</v>
+      </c>
+      <c r="O16" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="P16" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="24"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="31">
+        <v>0</v>
+      </c>
+      <c r="G17" s="31">
+        <v>0</v>
+      </c>
+      <c r="H17" s="31">
         <v>5</v>
       </c>
-      <c r="F1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="24"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="24"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="L3" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="M3" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="24"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="28">
-        <v>2500</v>
-      </c>
-      <c r="H4" s="29">
-        <v>500</v>
-      </c>
-      <c r="I4" s="30">
-        <v>120</v>
-      </c>
-      <c r="J4" s="27" t="s">
+      <c r="I17" s="31">
+        <v>0</v>
+      </c>
+      <c r="J17" s="31">
+        <v>0</v>
+      </c>
+      <c r="K17" s="31">
+        <v>99</v>
+      </c>
+      <c r="L17" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="27">
+      <c r="M17" s="31">
         <v>19.989999999999998</v>
       </c>
-      <c r="L4" s="27">
+      <c r="N17" s="31">
         <v>22.99</v>
       </c>
-      <c r="M4" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="31"/>
-    </row>
-    <row r="5" spans="1:18" ht="255" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="28">
-        <v>25000</v>
-      </c>
-      <c r="H5" s="29">
-        <v>1500</v>
-      </c>
-      <c r="I5" s="30">
-        <v>150</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="M5" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="31"/>
-    </row>
-    <row r="6" spans="1:18" ht="306" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="27">
-        <v>50000</v>
-      </c>
-      <c r="H6" s="29">
-        <v>1500</v>
-      </c>
-      <c r="I6" s="30">
-        <v>120</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="27">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="L6" s="27">
-        <v>22.99</v>
-      </c>
-      <c r="M6" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="N6" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="27"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="28">
-        <v>0</v>
-      </c>
-      <c r="H7" s="30">
-        <v>0</v>
-      </c>
-      <c r="I7" s="30">
-        <v>0</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="27">
-        <v>8.99</v>
-      </c>
-      <c r="L7" s="27">
-        <v>8.99</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="N7" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="27"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="H8" s="30">
-        <v>500</v>
-      </c>
-      <c r="I8" s="30">
-        <v>0</v>
-      </c>
-      <c r="J8" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="27">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="L8" s="27">
-        <v>22.99</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="N8" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="27"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30">
-        <v>0</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="27">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="L9" s="27">
-        <v>22.99</v>
-      </c>
-      <c r="M9" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="N9" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="31"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="28">
-        <v>15000</v>
-      </c>
-      <c r="H10" s="30">
-        <v>1500</v>
-      </c>
-      <c r="I10" s="30">
-        <v>120</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="L10" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="N10" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="31"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="28">
-        <v>50000</v>
-      </c>
-      <c r="H11" s="30">
-        <v>3000</v>
-      </c>
-      <c r="I11" s="30">
-        <v>699</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="M11" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="N11" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="31"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="28">
-        <v>5000</v>
-      </c>
-      <c r="H12" s="30">
-        <v>0</v>
-      </c>
-      <c r="I12" s="30">
-        <v>60</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="L12" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="N12" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="27"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="28">
-        <v>40000</v>
-      </c>
-      <c r="H13" s="30">
-        <v>3000</v>
-      </c>
-      <c r="I13" s="30">
-        <v>499</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="L13" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="M13" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="N13" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="31"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="28">
-        <v>50000</v>
-      </c>
-      <c r="H14" s="30">
-        <v>3000</v>
-      </c>
-      <c r="I14" s="30">
-        <v>899</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="M14" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N14" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="31"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="28">
-        <v>2000</v>
-      </c>
-      <c r="H15" s="30">
-        <v>1500</v>
-      </c>
-      <c r="I15" s="30">
-        <v>65</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="27">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="L15" s="27">
-        <v>22.99</v>
-      </c>
-      <c r="M15" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="N15" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="27"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="H16" s="30">
-        <v>3000</v>
-      </c>
-      <c r="I16" s="30">
-        <v>299</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="27">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="L16" s="27">
-        <v>22.99</v>
-      </c>
-      <c r="M16" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="N16" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="27"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="H17" s="30">
-        <v>0</v>
-      </c>
-      <c r="I17" s="30">
-        <v>99</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="27">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="L17" s="27">
-        <v>22.99</v>
-      </c>
-      <c r="M17" s="27" t="s">
+      <c r="O17" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="N17" s="31" t="s">
+      <c r="P17" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="31"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="19">
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="D1:D3"/>
     <mergeCell ref="J1:J3"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:O3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="N4" r:id="rId1" xr:uid="{43245B38-2625-6446-A8DA-17C091E01DFB}"/>
-    <hyperlink ref="N6" r:id="rId2" xr:uid="{0A256466-1B0D-914B-99ED-0C9109EA1112}"/>
-    <hyperlink ref="N9" r:id="rId3" xr:uid="{804E27F0-3CBB-D244-B71E-3F4425968A38}"/>
-    <hyperlink ref="N7" r:id="rId4" xr:uid="{45517A6A-8CC4-3848-BFC6-1D13B7E48CA9}"/>
-    <hyperlink ref="N15" r:id="rId5" xr:uid="{909EAFC2-E392-1347-9778-B2AEA8E2FA2B}"/>
-    <hyperlink ref="N8" r:id="rId6" xr:uid="{7F9FFB7F-D27B-B144-96F8-4C68DEEE4BAC}"/>
+    <hyperlink ref="P4" r:id="rId1" xr:uid="{43245B38-2625-6446-A8DA-17C091E01DFB}"/>
+    <hyperlink ref="P6" r:id="rId2" xr:uid="{0A256466-1B0D-914B-99ED-0C9109EA1112}"/>
+    <hyperlink ref="P9" r:id="rId3" xr:uid="{804E27F0-3CBB-D244-B71E-3F4425968A38}"/>
+    <hyperlink ref="P7" r:id="rId4" xr:uid="{45517A6A-8CC4-3848-BFC6-1D13B7E48CA9}"/>
+    <hyperlink ref="P15" r:id="rId5" xr:uid="{909EAFC2-E392-1347-9778-B2AEA8E2FA2B}"/>
+    <hyperlink ref="P8" r:id="rId6" xr:uid="{7F9FFB7F-D27B-B144-96F8-4C68DEEE4BAC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
